--- a/Assets/TestTable.xlsx
+++ b/Assets/TestTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Dongseo Pub\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dongseo_Pub\Project-Dongseo-Pub\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E93CD-35BA-49D5-8950-403EF7635DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2070" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{1E2DFB40-D718-451F-AC7B-AFCC318F5851}"/>
+    <workbookView xWindow="3630" yWindow="2070" windowWidth="21600" windowHeight="11295" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="ScriptsTable" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="CharacterNameTable" sheetId="2" r:id="rId3"/>
     <sheet name="ChapterTable" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,13 +233,117 @@
   </si>
   <si>
     <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한서령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">띵동 - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이 울린 곳을 가보니 방금 나의 코 끝을 자극했던 그 향을 가진 사람이 앉아 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문하시겠어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네!! 저희..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술병의 위치가 아슬아슬한데..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데, 왜 이렇게 밑이 축축하지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술냄새와 섞인 향을 맡다 정신을 차려보니 바지가 흥건하게 젖어있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….죄송합니다!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고개를 들어보니 은은하게 섬유유연제 향과 땀 냄새가 조금 섞인 포니테일을 한 다부진 체형의 여자가 안절부절한 상태로 서서 나를 쳐다보고있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 어쩜 좋아 괜찮으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 네 뭐… 괜찮아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 있는 일이라 갈아입을 옷이 있어서 괜찮아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 사실 매우 찝찝한 상태지만 이런 일이 자주 있어서 여분 옷을 챙겨왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거의 나 칭찬해..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도.. 다치진 않으셨나요?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쨍그랑!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 시끄러웠던 술집이 몇 초간 정적이 흘렀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아..진짜 어떡해.,.. 제가 빨아서 다시 돌려드릴게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니면 세탁비라도!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 취기가 조금 있는 지 매우 큰 목소리로 미안하다며 석고대죄를 하엿다ㅣ.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,17 +703,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31217EB7-8DB7-418F-9430-66785E19A969}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="81.25" customWidth="1"/>
+    <col min="4" max="4" width="85.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,7 +726,7 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -637,7 +740,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +754,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -665,7 +768,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -679,7 +782,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -693,7 +796,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -707,7 +810,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -721,7 +824,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -735,7 +838,7 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -749,7 +852,7 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -763,11 +866,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -791,7 +894,7 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -805,7 +908,7 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -819,7 +922,7 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -833,7 +936,7 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -847,7 +950,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -861,7 +964,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -875,7 +978,7 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -889,7 +992,7 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -903,7 +1006,7 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -917,7 +1020,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -931,7 +1034,7 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -945,7 +1048,7 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -959,7 +1062,7 @@
       <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -973,7 +1076,7 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -987,7 +1090,7 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1001,7 +1104,7 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1015,7 +1118,7 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1029,22 +1132,623 @@
       <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D6B28F-99FD-4762-932C-517451CE0E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1647,11 +2351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0743FF9D-285A-4FF4-9392-AD892DB09098}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1735,6 +2439,14 @@
       </c>
       <c r="B12" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1744,11 +2456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7E1BE-8C42-46B1-A952-CA8D006C2361}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1756,7 +2468,7 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1772,28 +2484,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
